--- a/notebooks/Data/Star_Wars_Episode_VI_Return_of_the_Jedi/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_Episode_VI_Return_of_the_Jedi/centrality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>betweenness_centrality</t>
   </si>
@@ -28,9 +28,15 @@
     <t>eigenvector_centrality</t>
   </si>
   <si>
+    <t>in_degree</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>out_degree</t>
+  </si>
+  <si>
     <t>Blount</t>
   </si>
   <si>
@@ -100,211 +106,211 @@
     <t>Snit</t>
   </si>
   <si>
+    <t>Saelt-Marae</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Orrimaarko</t>
+  </si>
+  <si>
+    <t>R2-D2</t>
+  </si>
+  <si>
+    <t>Jabba's bartender</t>
+  </si>
+  <si>
+    <t>Cane Adiss</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Igar</t>
+  </si>
+  <si>
+    <t>Harc Seff</t>
+  </si>
+  <si>
+    <t>Rystáll Sant</t>
+  </si>
+  <si>
+    <t>Teebo</t>
+  </si>
+  <si>
+    <t>Romba</t>
+  </si>
+  <si>
+    <t>Tiaan Jerjerrod</t>
+  </si>
+  <si>
+    <t>Max Rebo</t>
+  </si>
+  <si>
+    <t>Umpass-stay</t>
+  </si>
+  <si>
+    <t>Padmé Amidala</t>
+  </si>
+  <si>
+    <t>C-3PO</t>
+  </si>
+  <si>
+    <t>Jabba Desilijic Tiure</t>
+  </si>
+  <si>
+    <t>Gial Ackbar</t>
+  </si>
+  <si>
+    <t>Chewbacca</t>
+  </si>
+  <si>
+    <t>Kithaba</t>
+  </si>
+  <si>
+    <t>Joh Yowza</t>
+  </si>
+  <si>
+    <t>Bib Fortuna</t>
+  </si>
+  <si>
+    <t>Jubnuk</t>
+  </si>
+  <si>
+    <t>Velken Tezeri</t>
+  </si>
+  <si>
+    <t>Yoxgit</t>
+  </si>
+  <si>
+    <t>Leektar</t>
+  </si>
+  <si>
     <t>Chirpa</t>
   </si>
   <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Orrimaarko</t>
-  </si>
-  <si>
-    <t>R2-D2</t>
-  </si>
-  <si>
-    <t>Jabba's bartender</t>
-  </si>
-  <si>
-    <t>Cane Adiss</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Igar</t>
-  </si>
-  <si>
-    <t>Harc Seff</t>
-  </si>
-  <si>
-    <t>Rystáll Sant</t>
-  </si>
-  <si>
-    <t>Teebo</t>
-  </si>
-  <si>
-    <t>Romba</t>
-  </si>
-  <si>
-    <t>Tiaan Jerjerrod</t>
-  </si>
-  <si>
-    <t>Max Rebo</t>
-  </si>
-  <si>
-    <t>Umpass-stay</t>
-  </si>
-  <si>
-    <t>Padmé Amidala</t>
-  </si>
-  <si>
-    <t>C-3PO</t>
-  </si>
-  <si>
-    <t>Jabba Desilijic Tiure</t>
-  </si>
-  <si>
-    <t>Gial Ackbar</t>
-  </si>
-  <si>
-    <t>Chewbacca</t>
-  </si>
-  <si>
-    <t>Kithaba</t>
-  </si>
-  <si>
-    <t>Joh Yowza</t>
-  </si>
-  <si>
-    <t>Bib Fortuna</t>
-  </si>
-  <si>
-    <t>Jubnuk</t>
-  </si>
-  <si>
-    <t>Velken Tezeri</t>
-  </si>
-  <si>
-    <t>Yoxgit</t>
-  </si>
-  <si>
-    <t>Leektar</t>
+    <t>Nik Sant</t>
+  </si>
+  <si>
+    <t>Geezum</t>
+  </si>
+  <si>
+    <t>Lyn Me</t>
+  </si>
+  <si>
+    <t>Keir Santage</t>
+  </si>
+  <si>
+    <t>Giran</t>
+  </si>
+  <si>
+    <t>Nien Nunb</t>
+  </si>
+  <si>
+    <t>Ekelarc Yong</t>
+  </si>
+  <si>
+    <t>Airen Cracken</t>
+  </si>
+  <si>
+    <t>Logray</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>Sila Kott</t>
+  </si>
+  <si>
+    <t>Hermi Odle</t>
+  </si>
+  <si>
+    <t>Gherant</t>
+  </si>
+  <si>
+    <t>Doda Bodonawieedo</t>
+  </si>
+  <si>
+    <t>Dengar</t>
+  </si>
+  <si>
+    <t>EV-9D9</t>
+  </si>
+  <si>
+    <t>Hewex</t>
+  </si>
+  <si>
+    <t>Pote Snitkin</t>
+  </si>
+  <si>
+    <t>Darth Sidious</t>
+  </si>
+  <si>
+    <t>Greeata Jendowanian</t>
+  </si>
+  <si>
+    <t>Amanaman</t>
+  </si>
+  <si>
+    <t>Boushh</t>
+  </si>
+  <si>
+    <t>Judder Page</t>
+  </si>
+  <si>
+    <t>Buboicullaar</t>
+  </si>
+  <si>
+    <t>Bossk</t>
+  </si>
+  <si>
+    <t>Tessek</t>
+  </si>
+  <si>
+    <t>Crix Madine</t>
+  </si>
+  <si>
+    <t>Vedain</t>
+  </si>
+  <si>
+    <t>Dorovio Bold</t>
+  </si>
+  <si>
+    <t>Ephant Mon</t>
+  </si>
+  <si>
+    <t>Shasa Tiel</t>
+  </si>
+  <si>
+    <t>Malakili</t>
+  </si>
+  <si>
+    <t>Ree-Yees</t>
+  </si>
+  <si>
+    <t>Pagetti Rook</t>
+  </si>
+  <si>
+    <t>Dyer</t>
+  </si>
+  <si>
+    <t>Grizz Frix</t>
+  </si>
+  <si>
+    <t>Bane Malar</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Wam Lufba</t>
+  </si>
+  <si>
+    <t>Sy Snootles</t>
   </si>
   <si>
     <t>Obi-Wan Kenobi</t>
-  </si>
-  <si>
-    <t>Nik Sant</t>
-  </si>
-  <si>
-    <t>Geezum</t>
-  </si>
-  <si>
-    <t>Lyn Me</t>
-  </si>
-  <si>
-    <t>Keir Santage</t>
-  </si>
-  <si>
-    <t>Giran</t>
-  </si>
-  <si>
-    <t>Nien Nunb</t>
-  </si>
-  <si>
-    <t>Ekelarc Yong</t>
-  </si>
-  <si>
-    <t>Airen Cracken</t>
-  </si>
-  <si>
-    <t>Logray</t>
-  </si>
-  <si>
-    <t>Yoda</t>
-  </si>
-  <si>
-    <t>Sila Kott</t>
-  </si>
-  <si>
-    <t>Hermi Odle</t>
-  </si>
-  <si>
-    <t>Gherant</t>
-  </si>
-  <si>
-    <t>Doda Bodonawieedo</t>
-  </si>
-  <si>
-    <t>Dengar</t>
-  </si>
-  <si>
-    <t>EV-9D9</t>
-  </si>
-  <si>
-    <t>Hewex</t>
-  </si>
-  <si>
-    <t>Pote Snitkin</t>
-  </si>
-  <si>
-    <t>Darth Sidious</t>
-  </si>
-  <si>
-    <t>Greeata Jendowanian</t>
-  </si>
-  <si>
-    <t>Amanaman</t>
-  </si>
-  <si>
-    <t>Boushh</t>
-  </si>
-  <si>
-    <t>Judder Page</t>
-  </si>
-  <si>
-    <t>Buboicullaar</t>
-  </si>
-  <si>
-    <t>Bossk</t>
-  </si>
-  <si>
-    <t>Tessek</t>
-  </si>
-  <si>
-    <t>Crix Madine</t>
-  </si>
-  <si>
-    <t>Vedain</t>
-  </si>
-  <si>
-    <t>Dorovio Bold</t>
-  </si>
-  <si>
-    <t>Ephant Mon</t>
-  </si>
-  <si>
-    <t>Shasa Tiel</t>
-  </si>
-  <si>
-    <t>Malakili</t>
-  </si>
-  <si>
-    <t>Ree-Yees</t>
-  </si>
-  <si>
-    <t>Pagetti Rook</t>
-  </si>
-  <si>
-    <t>Saelt-Marae</t>
-  </si>
-  <si>
-    <t>Dyer</t>
-  </si>
-  <si>
-    <t>Grizz Frix</t>
-  </si>
-  <si>
-    <t>Bane Malar</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Wam Lufba</t>
-  </si>
-  <si>
-    <t>Sy Snootles</t>
   </si>
   <si>
     <t>Ak-rev</t>
@@ -755,13 +761,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,8 +783,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -792,18 +804,24 @@
         <v>0.02459016393442623</v>
       </c>
       <c r="E2">
-        <v>0.002250692694672922</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.002321661509383767</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0369652977953376</v>
+        <v>0.03720288780089533</v>
       </c>
       <c r="C3">
         <v>72</v>
@@ -812,33 +830,45 @@
         <v>0.5901639344262295</v>
       </c>
       <c r="E3">
-        <v>0.2749297959509184</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.2765713701731871</v>
+      </c>
+      <c r="F3">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01365622432884536</v>
+        <v>0.01374873042321675</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>0.3114754098360656</v>
+        <v>0.3032786885245902</v>
       </c>
       <c r="E4">
-        <v>0.2029963779391313</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.1912990833353383</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -852,13 +882,19 @@
         <v>0.02459016393442623</v>
       </c>
       <c r="E5">
-        <v>3.086764555258873e-09</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>3.396675888254257e-09</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -872,18 +908,24 @@
         <v>0.02459016393442623</v>
       </c>
       <c r="E6">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.000268582992439192</v>
+        <v>0.0002802678715395788</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -892,13 +934,19 @@
         <v>0.06557377049180328</v>
       </c>
       <c r="E7">
-        <v>0.002960873641618428</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.003067385468736839</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -912,18 +960,24 @@
         <v>0.02459016393442623</v>
       </c>
       <c r="E8">
-        <v>5.61229919137977e-10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>6.175774342280465e-10</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.032199792259405e-05</v>
+        <v>0.0001016122476629183</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -932,18 +986,24 @@
         <v>0.04098360655737705</v>
       </c>
       <c r="E9">
-        <v>0.01937819560982574</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01977714353316462</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01550599821095702</v>
+        <v>0.01544589922030296</v>
       </c>
       <c r="C10">
         <v>29</v>
@@ -952,13 +1012,19 @@
         <v>0.2377049180327869</v>
       </c>
       <c r="E10">
-        <v>0.02715394092003047</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.02605093903846357</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -972,13 +1038,19 @@
         <v>0.06557377049180328</v>
       </c>
       <c r="E11">
-        <v>0.01974910872331277</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02008929497870731</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -992,13 +1064,19 @@
         <v>0.02459016393442623</v>
       </c>
       <c r="E12">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1012,33 +1090,45 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E13">
-        <v>1.096152185816361e-11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>1.206205926226653e-11</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.007872285845539909</v>
+        <v>0.007894021988736559</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>0.1147540983606557</v>
+        <v>0.1065573770491803</v>
       </c>
       <c r="E14">
-        <v>0.03519282853821228</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02022606581468835</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1052,18 +1142,24 @@
         <v>0.05737704918032787</v>
       </c>
       <c r="E15">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0003141933397429058</v>
+        <v>0.0003029642060500306</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -1072,33 +1168,45 @@
         <v>0.139344262295082</v>
       </c>
       <c r="E16">
-        <v>5.61229919137977e-10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>6.175774342280465e-10</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01645200227447994</v>
+        <v>0.0005299022769060372</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>0.3114754098360656</v>
+        <v>0.2540983606557377</v>
       </c>
       <c r="E17">
-        <v>0.2224305951128129</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.2273330086282688</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1112,13 +1220,19 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E18">
-        <v>1.096152185816361e-11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>1.206205926226653e-11</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1132,13 +1246,19 @@
         <v>0.03278688524590164</v>
       </c>
       <c r="E19">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1152,18 +1272,24 @@
         <v>0.1229508196721312</v>
       </c>
       <c r="E20">
-        <v>0.05124277979068228</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.05118817341611964</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.001716405803588063</v>
+        <v>0.002196978644953174</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -1172,13 +1298,19 @@
         <v>0.07377049180327869</v>
       </c>
       <c r="E21">
-        <v>0.03574318230711278</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.03637691588620492</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1192,13 +1324,19 @@
         <v>0.05737704918032787</v>
       </c>
       <c r="E22">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1212,13 +1350,19 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E23">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1232,38 +1376,50 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E24">
-        <v>0.002832377799039047</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.002939818594313102</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.01145967603170179</v>
+        <v>0.0002709659937677822</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>0.06557377049180328</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="E25">
-        <v>0.03738317097281673</v>
-      </c>
-      <c r="F25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>6.175774342280465e-10</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.06559161786582923</v>
+        <v>0.06583459921825083</v>
       </c>
       <c r="C26">
         <v>84</v>
@@ -1272,13 +1428,19 @@
         <v>0.6885245901639344</v>
       </c>
       <c r="E26">
-        <v>0.2720003874443898</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.2724000300692392</v>
+      </c>
+      <c r="F26">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1292,18 +1454,24 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.007958060800338116</v>
+        <v>0.008279510607551294</v>
       </c>
       <c r="C28">
         <v>51</v>
@@ -1312,13 +1480,19 @@
         <v>0.4180327868852459</v>
       </c>
       <c r="E28">
-        <v>0.238531504251924</v>
-      </c>
-      <c r="F28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.2421372157205008</v>
+      </c>
+      <c r="F28">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1332,13 +1506,19 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E29">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1352,18 +1532,24 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E30">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.009149739600887016</v>
+        <v>0.01128253969527393</v>
       </c>
       <c r="C31">
         <v>33</v>
@@ -1372,18 +1558,24 @@
         <v>0.2704918032786885</v>
       </c>
       <c r="E31">
-        <v>0.1854480648064934</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.186644685319742</v>
+      </c>
+      <c r="F31">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0005805925396766747</v>
+        <v>0.0006686564876512038</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -1392,13 +1584,19 @@
         <v>0.03278688524590164</v>
       </c>
       <c r="E32">
-        <v>1.121363686090137e-09</v>
-      </c>
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>1.233948662529867e-09</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1412,18 +1610,24 @@
         <v>0.08196721311475411</v>
       </c>
       <c r="E33">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0001182368212433657</v>
+        <v>0.0001187978274416426</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -1432,13 +1636,19 @@
         <v>0.04918032786885246</v>
       </c>
       <c r="E34">
-        <v>6.028837021989985e-11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>6.634132594246595e-11</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1452,13 +1662,19 @@
         <v>0.04098360655737705</v>
       </c>
       <c r="E35">
-        <v>0.00141976226795311</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.001466500208806213</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1472,33 +1688,45 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E36">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0003036987574990556</v>
+        <v>0.0002877007906814166</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>0.08196721311475411</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="E37">
-        <v>0.03624222914053538</v>
-      </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>0.0213646412449965</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1512,13 +1740,19 @@
         <v>0.03278688524590164</v>
       </c>
       <c r="E38">
-        <v>0.003142237693349307</v>
-      </c>
-      <c r="F38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.003258196693170247</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1532,13 +1766,19 @@
         <v>0.05737704918032787</v>
       </c>
       <c r="E39">
-        <v>1.096152185816361e-11</v>
-      </c>
-      <c r="F39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>1.206205926226653e-11</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1552,18 +1792,24 @@
         <v>0.1885245901639344</v>
       </c>
       <c r="E40">
-        <v>0.19143899499942</v>
-      </c>
-      <c r="F40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.1955811526958114</v>
+      </c>
+      <c r="F40">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.01336672346869296</v>
+        <v>0.01364216369180872</v>
       </c>
       <c r="C41">
         <v>53</v>
@@ -1572,18 +1818,24 @@
         <v>0.4344262295081968</v>
       </c>
       <c r="E41">
-        <v>0.2266350085229041</v>
-      </c>
-      <c r="F41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.2269336051637245</v>
+      </c>
+      <c r="F41">
+        <v>35</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.07782808278610542</v>
+        <v>0.07780421277260133</v>
       </c>
       <c r="C42">
         <v>89</v>
@@ -1592,18 +1844,24 @@
         <v>0.7295081967213115</v>
       </c>
       <c r="E42">
-        <v>0.254545357921648</v>
-      </c>
-      <c r="F42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.2566998092126139</v>
+      </c>
+      <c r="F42">
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.01038990885584299</v>
+        <v>0.01053359795878085</v>
       </c>
       <c r="C43">
         <v>34</v>
@@ -1612,18 +1870,24 @@
         <v>0.278688524590164</v>
       </c>
       <c r="E43">
-        <v>0.1611478084505364</v>
-      </c>
-      <c r="F43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.1617908974849822</v>
+      </c>
+      <c r="F43">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.04353481658850993</v>
+        <v>0.04366263399978429</v>
       </c>
       <c r="C44">
         <v>76</v>
@@ -1632,13 +1896,19 @@
         <v>0.6229508196721312</v>
       </c>
       <c r="E44">
-        <v>0.2669594080864032</v>
-      </c>
-      <c r="F44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.2683850341557281</v>
+      </c>
+      <c r="F44">
+        <v>53</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1652,13 +1922,19 @@
         <v>0.1065573770491803</v>
       </c>
       <c r="E45">
-        <v>5.61229919137977e-10</v>
-      </c>
-      <c r="F45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>6.175774342280465e-10</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1672,18 +1948,24 @@
         <v>0.01639344262295082</v>
       </c>
       <c r="E46">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.004168158262298128</v>
+        <v>0.004181904700853286</v>
       </c>
       <c r="C47">
         <v>22</v>
@@ -1692,13 +1974,19 @@
         <v>0.180327868852459</v>
       </c>
       <c r="E47">
-        <v>0.06018476925841996</v>
-      </c>
-      <c r="F47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.06043058126268184</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1712,13 +2000,19 @@
         <v>0.09836065573770492</v>
       </c>
       <c r="E48">
-        <v>0.002004453714380924</v>
-      </c>
-      <c r="F48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.00196265652651833</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1732,18 +2026,24 @@
         <v>0.04918032786885246</v>
       </c>
       <c r="E49">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.0001543190292338689</v>
+        <v>0.0001945238789997087</v>
       </c>
       <c r="C50">
         <v>12</v>
@@ -1752,13 +2052,19 @@
         <v>0.09836065573770492</v>
       </c>
       <c r="E50">
-        <v>5.710952888103242e-10</v>
-      </c>
-      <c r="F50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>6.284332875640864e-10</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1772,33 +2078,45 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.00584991362741758</v>
+        <v>0.01153604948681199</v>
       </c>
       <c r="C52">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>0.2459016393442623</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="E52">
-        <v>0.2122601968873374</v>
-      </c>
-      <c r="F52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>0.03814313116423129</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1812,13 +2130,19 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E53">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1832,13 +2156,19 @@
         <v>0.07377049180327869</v>
       </c>
       <c r="E54">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1852,13 +2182,19 @@
         <v>0.05737704918032787</v>
       </c>
       <c r="E55">
-        <v>1.096152185816361e-11</v>
-      </c>
-      <c r="F55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>1.206205926226653e-11</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1872,13 +2208,19 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1892,18 +2234,24 @@
         <v>0.04098360655737705</v>
       </c>
       <c r="E57">
-        <v>0.000265790286100787</v>
-      </c>
-      <c r="F57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.0002717214288160276</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.003921223739627357</v>
+        <v>0.003943001044471427</v>
       </c>
       <c r="C58">
         <v>17</v>
@@ -1912,13 +2260,19 @@
         <v>0.139344262295082</v>
       </c>
       <c r="E58">
-        <v>0.1037758358097189</v>
-      </c>
-      <c r="F58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.1041951324521323</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1932,13 +2286,19 @@
         <v>0.01639344262295082</v>
       </c>
       <c r="E59">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1952,18 +2312,24 @@
         <v>0.08196721311475411</v>
       </c>
       <c r="E60">
-        <v>0.03515683644586397</v>
-      </c>
-      <c r="F60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.03577527258303807</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.0007631722888801875</v>
+        <v>0.0007647851817002338</v>
       </c>
       <c r="C61">
         <v>7</v>
@@ -1972,18 +2338,24 @@
         <v>0.05737704918032787</v>
       </c>
       <c r="E61">
-        <v>0.002427380556794499</v>
-      </c>
-      <c r="F61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.002507470018862268</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0001310364466833067</v>
+        <v>0.000129707546474637</v>
       </c>
       <c r="C62">
         <v>21</v>
@@ -1992,13 +2364,19 @@
         <v>0.1721311475409836</v>
       </c>
       <c r="E62">
-        <v>0.187961765742058</v>
-      </c>
-      <c r="F62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.1922293181666282</v>
+      </c>
+      <c r="F62">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2012,13 +2390,19 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E63">
-        <v>0.01062184253136688</v>
-      </c>
-      <c r="F63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.009963159045530679</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2032,13 +2416,19 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E64">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2052,13 +2442,19 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E65">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2072,38 +2468,50 @@
         <v>0.04098360655737705</v>
       </c>
       <c r="E66">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.001930546570618819</v>
+        <v>0.002429675354541433</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67">
-        <v>0.1311475409836066</v>
+        <v>0.1229508196721312</v>
       </c>
       <c r="E67">
-        <v>0.08858779156183708</v>
-      </c>
-      <c r="F67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.07463966854148396</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.01468875839137867</v>
+        <v>0.01472530464515995</v>
       </c>
       <c r="C68">
         <v>11</v>
@@ -2112,13 +2520,19 @@
         <v>0.09016393442622951</v>
       </c>
       <c r="E68">
-        <v>0.003375123383886712</v>
-      </c>
-      <c r="F68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.002470254947420397</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2132,13 +2546,19 @@
         <v>0.03278688524590164</v>
       </c>
       <c r="E69">
-        <v>5.61229919137977e-10</v>
-      </c>
-      <c r="F69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>6.175774342280465e-10</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2152,18 +2572,24 @@
         <v>0.05737704918032787</v>
       </c>
       <c r="E70">
-        <v>1.096152185816361e-11</v>
-      </c>
-      <c r="F70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>1.206205926226653e-11</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.01636142333439163</v>
+        <v>0.01619763991654781</v>
       </c>
       <c r="C71">
         <v>42</v>
@@ -2172,18 +2598,24 @@
         <v>0.3442622950819672</v>
       </c>
       <c r="E71">
-        <v>0.2571946819569385</v>
-      </c>
-      <c r="F71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.2593149271372601</v>
+      </c>
+      <c r="F71">
+        <v>27</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.000272327422751838</v>
+        <v>0.000273449435148392</v>
       </c>
       <c r="C72">
         <v>9</v>
@@ -2192,13 +2624,19 @@
         <v>0.07377049180327869</v>
       </c>
       <c r="E72">
-        <v>0.002832377848365895</v>
-      </c>
-      <c r="F72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.002939818648592369</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2212,13 +2650,19 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2232,13 +2676,19 @@
         <v>0.2295081967213115</v>
       </c>
       <c r="E74">
-        <v>0.1356707147573996</v>
-      </c>
-      <c r="F74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.1375256150742365</v>
+      </c>
+      <c r="F74">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2252,13 +2702,19 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E75">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2272,33 +2728,45 @@
         <v>0.01639344262295082</v>
       </c>
       <c r="E76">
-        <v>5.61229919137977e-10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>6.175774342280465e-10</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>81</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.0214030157115784</v>
+        <v>0.02154204194475043</v>
       </c>
       <c r="C77">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77">
-        <v>0.1229508196721312</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="E77">
-        <v>0.05229233485948295</v>
-      </c>
-      <c r="F77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.03774706578774092</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2312,18 +2780,24 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E78">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>83</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6.346338482905344e-05</v>
+        <v>6.478703141186473e-05</v>
       </c>
       <c r="C79">
         <v>9</v>
@@ -2332,13 +2806,19 @@
         <v>0.07377049180327869</v>
       </c>
       <c r="E79">
-        <v>0.02799985172644418</v>
-      </c>
-      <c r="F79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.02861654054286164</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79" t="s">
+        <v>84</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2352,13 +2832,19 @@
         <v>0.06557377049180328</v>
       </c>
       <c r="E80">
-        <v>1.121363686090137e-09</v>
-      </c>
-      <c r="F80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>1.233948662529867e-09</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2372,13 +2858,19 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>86</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2392,13 +2884,19 @@
         <v>0.03278688524590164</v>
       </c>
       <c r="E82">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F82" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>87</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2412,18 +2910,24 @@
         <v>0.04098360655737705</v>
       </c>
       <c r="E83">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>88</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.009045107744969076</v>
+        <v>0.009053255833791313</v>
       </c>
       <c r="C84">
         <v>10</v>
@@ -2432,13 +2936,19 @@
         <v>0.08196721311475411</v>
       </c>
       <c r="E84">
-        <v>0.00414902283856804</v>
-      </c>
-      <c r="F84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.004184012539595006</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2452,13 +2962,19 @@
         <v>0.06557377049180328</v>
       </c>
       <c r="E85">
-        <v>5.61229919137977e-10</v>
-      </c>
-      <c r="F85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>6.175774342280465e-10</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2472,33 +2988,45 @@
         <v>0.1065573770491803</v>
       </c>
       <c r="E86">
-        <v>5.61229919137977e-10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>6.175774342280465e-10</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0002709659937677822</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>0.04918032786885246</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="E87">
-        <v>5.61229919137977e-10</v>
-      </c>
-      <c r="F87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>6.175774342280465e-10</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>92</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2506,19 +3034,25 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>0.03278688524590164</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>5.61229919137977e-10</v>
-      </c>
-      <c r="F88" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>93</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2532,93 +3066,123 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F89" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>94</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>0.04496858637538451</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>0.4344262295081968</v>
       </c>
       <c r="E90">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F90" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.2726291624064943</v>
+      </c>
+      <c r="F90">
+        <v>32</v>
+      </c>
+      <c r="G90" t="s">
+        <v>95</v>
+      </c>
+      <c r="H90">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.03346879475521996</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>0.4344262295081968</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="E91">
-        <v>0.2727758857696685</v>
-      </c>
-      <c r="F91" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>96</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>0.03246034209029102</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D92">
-        <v>0.03278688524590164</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="E92">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F92" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.04530082036821833</v>
+      </c>
+      <c r="F92">
+        <v>7</v>
+      </c>
+      <c r="G92" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.03174452808648673</v>
+        <v>0.005858260533125211</v>
       </c>
       <c r="C93">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D93">
-        <v>0.180327868852459</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="E93">
-        <v>0.0442422318495006</v>
-      </c>
-      <c r="F93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.216091319356182</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>98</v>
+      </c>
+      <c r="H93">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2632,13 +3196,19 @@
         <v>0.06557377049180328</v>
       </c>
       <c r="E94">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>99</v>
+      </c>
+      <c r="H94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2652,13 +3222,19 @@
         <v>0.04918032786885246</v>
       </c>
       <c r="E95">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2672,18 +3248,24 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E96">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>101</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.001752446630720059</v>
+        <v>0.001789375234238556</v>
       </c>
       <c r="C97">
         <v>16</v>
@@ -2692,13 +3274,19 @@
         <v>0.1311475409836066</v>
       </c>
       <c r="E97">
-        <v>0.1039545447112023</v>
-      </c>
-      <c r="F97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.1042078277574438</v>
+      </c>
+      <c r="F97">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>102</v>
+      </c>
+      <c r="H97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2712,13 +3300,19 @@
         <v>0.01639344262295082</v>
       </c>
       <c r="E98">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>103</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2732,13 +3326,19 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E99">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>104</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2752,18 +3352,24 @@
         <v>0.03278688524590164</v>
       </c>
       <c r="E100">
-        <v>0.002252788155095091</v>
-      </c>
-      <c r="F100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>0.001312421792973664</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>105</v>
+      </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.00234136884086165</v>
+        <v>0.002355080442354278</v>
       </c>
       <c r="C101">
         <v>20</v>
@@ -2772,13 +3378,19 @@
         <v>0.1639344262295082</v>
       </c>
       <c r="E101">
-        <v>0.02221969009015193</v>
-      </c>
-      <c r="F101" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02268860610421475</v>
+      </c>
+      <c r="F101">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>106</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2792,13 +3404,19 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>107</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2812,13 +3430,19 @@
         <v>0.04098360655737705</v>
       </c>
       <c r="E103">
-        <v>3.086764555258873e-09</v>
-      </c>
-      <c r="F103" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>3.396675888254257e-09</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="s">
+        <v>108</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2832,13 +3456,19 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F104" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>109</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2852,13 +3482,19 @@
         <v>0.03278688524590164</v>
       </c>
       <c r="E105">
-        <v>0.0002160222978687821</v>
-      </c>
-      <c r="F105" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>0.0001602798268755856</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>110</v>
+      </c>
+      <c r="H105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2872,18 +3508,24 @@
         <v>0.02459016393442623</v>
       </c>
       <c r="E106">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F106" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.04042141079392347</v>
+        <v>0.04037332824698277</v>
       </c>
       <c r="C107">
         <v>79</v>
@@ -2892,13 +3534,19 @@
         <v>0.6475409836065574</v>
       </c>
       <c r="E107">
-        <v>0.2754343110162504</v>
-      </c>
-      <c r="F107" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>0.2761558682440861</v>
+      </c>
+      <c r="F107">
+        <v>58</v>
+      </c>
+      <c r="G107" t="s">
+        <v>112</v>
+      </c>
+      <c r="H107">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2912,13 +3560,19 @@
         <v>0.04098360655737705</v>
       </c>
       <c r="E108">
-        <v>0.01763240316288236</v>
-      </c>
-      <c r="F108" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>0.01792061153344954</v>
+      </c>
+      <c r="F108">
+        <v>3</v>
+      </c>
+      <c r="G108" t="s">
+        <v>113</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2932,13 +3586,19 @@
         <v>0.04098360655737705</v>
       </c>
       <c r="E109">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F109" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>114</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2952,13 +3612,19 @@
         <v>0.01639344262295082</v>
       </c>
       <c r="E110">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F110" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>115</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2972,13 +3638,19 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E111">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F111" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>116</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2992,58 +3664,76 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F112" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>117</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.007915869062274884</v>
+        <v>0.007898220292763223</v>
       </c>
       <c r="C113">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D113">
-        <v>0.2131147540983607</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="E113">
-        <v>0.165926962332282</v>
-      </c>
-      <c r="F113" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>0.1535350363067592</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>118</v>
+      </c>
+      <c r="H113">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0014020396454831</v>
+        <v>0.0012929976522711</v>
       </c>
       <c r="C114">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D114">
-        <v>0.1147540983606557</v>
+        <v>0.1065573770491803</v>
       </c>
       <c r="E114">
-        <v>0.07179533434198029</v>
-      </c>
-      <c r="F114" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>0.05862960918501536</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
+      </c>
+      <c r="G114" t="s">
+        <v>119</v>
+      </c>
+      <c r="H114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0033134939082277</v>
+        <v>0.003278339974907066</v>
       </c>
       <c r="C115">
         <v>27</v>
@@ -3052,13 +3742,19 @@
         <v>0.2213114754098361</v>
       </c>
       <c r="E115">
-        <v>0.1371340101832594</v>
-      </c>
-      <c r="F115" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>0.1392144515316402</v>
+      </c>
+      <c r="F115">
+        <v>11</v>
+      </c>
+      <c r="G115" t="s">
+        <v>120</v>
+      </c>
+      <c r="H115">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3072,18 +3768,24 @@
         <v>0.07377049180327869</v>
       </c>
       <c r="E116">
-        <v>5.710952888103242e-10</v>
-      </c>
-      <c r="F116" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>6.284332875640864e-10</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116" t="s">
+        <v>121</v>
+      </c>
+      <c r="H116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.0006451797974997621</v>
+        <v>0.0006536226157802398</v>
       </c>
       <c r="C117">
         <v>5</v>
@@ -3092,13 +3794,19 @@
         <v>0.04098360655737705</v>
       </c>
       <c r="E117">
-        <v>0.01629548749398028</v>
-      </c>
-      <c r="F117" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>0.01665834898284212</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>122</v>
+      </c>
+      <c r="H117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3112,13 +3820,19 @@
         <v>0.01639344262295082</v>
       </c>
       <c r="E118">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>123</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3132,13 +3846,19 @@
         <v>0.09836065573770492</v>
       </c>
       <c r="E119">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F119" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>124</v>
+      </c>
+      <c r="H119">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3152,13 +3872,19 @@
         <v>0.1065573770491803</v>
       </c>
       <c r="E120">
-        <v>5.61229919137977e-10</v>
-      </c>
-      <c r="F120" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>6.175774342280465e-10</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>125</v>
+      </c>
+      <c r="H120">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3172,13 +3898,19 @@
         <v>0.03278688524590164</v>
       </c>
       <c r="E121">
-        <v>1.096152185816361e-12</v>
-      </c>
-      <c r="F121" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>1.206205926226653e-12</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>126</v>
+      </c>
+      <c r="H121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3192,18 +3924,24 @@
         <v>0.04918032786885246</v>
       </c>
       <c r="E122">
-        <v>5.61229919137977e-10</v>
-      </c>
-      <c r="F122" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>6.175774342280465e-10</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>127</v>
+      </c>
+      <c r="H122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.009677222684609608</v>
+        <v>0.009723710654481944</v>
       </c>
       <c r="C123">
         <v>17</v>
@@ -3212,13 +3950,19 @@
         <v>0.139344262295082</v>
       </c>
       <c r="E123">
-        <v>0.03649681641587456</v>
-      </c>
-      <c r="F123" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>0.03717190405900286</v>
+      </c>
+      <c r="F123">
+        <v>5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>128</v>
+      </c>
+      <c r="H123">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3232,10 +3976,16 @@
         <v>0.04098360655737705</v>
       </c>
       <c r="E124">
-        <v>0.0002160222978687821</v>
-      </c>
-      <c r="F124" t="s">
-        <v>127</v>
+        <v>0.0001602798268755856</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>129</v>
+      </c>
+      <c r="H124">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/Data/Star_Wars_Episode_VI_Return_of_the_Jedi/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_Episode_VI_Return_of_the_Jedi/centrality.xlsx
@@ -106,192 +106,195 @@
     <t>Snit</t>
   </si>
   <si>
+    <t>Chirpa</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Orrimaarko</t>
+  </si>
+  <si>
+    <t>R2-D2</t>
+  </si>
+  <si>
+    <t>Jabba's bartender</t>
+  </si>
+  <si>
+    <t>Cane Adiss</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Igar</t>
+  </si>
+  <si>
+    <t>Harc Seff</t>
+  </si>
+  <si>
+    <t>Rystáll Sant</t>
+  </si>
+  <si>
+    <t>Teebo</t>
+  </si>
+  <si>
+    <t>Romba</t>
+  </si>
+  <si>
+    <t>Tiaan Jerjerrod</t>
+  </si>
+  <si>
+    <t>Max Rebo</t>
+  </si>
+  <si>
+    <t>Umpass-stay</t>
+  </si>
+  <si>
+    <t>Padmé Amidala</t>
+  </si>
+  <si>
+    <t>C-3PO</t>
+  </si>
+  <si>
+    <t>Jabba Desilijic Tiure</t>
+  </si>
+  <si>
+    <t>Gial Ackbar</t>
+  </si>
+  <si>
+    <t>Chewbacca</t>
+  </si>
+  <si>
+    <t>Kithaba</t>
+  </si>
+  <si>
+    <t>Joh Yowza</t>
+  </si>
+  <si>
+    <t>Bib Fortuna</t>
+  </si>
+  <si>
+    <t>Jubnuk</t>
+  </si>
+  <si>
+    <t>Velken Tezeri</t>
+  </si>
+  <si>
+    <t>Yoxgit</t>
+  </si>
+  <si>
+    <t>Leektar</t>
+  </si>
+  <si>
+    <t>Obi-Wan Kenobi</t>
+  </si>
+  <si>
+    <t>Nik Sant</t>
+  </si>
+  <si>
+    <t>Geezum</t>
+  </si>
+  <si>
+    <t>Lyn Me</t>
+  </si>
+  <si>
+    <t>Keir Santage</t>
+  </si>
+  <si>
+    <t>Giran</t>
+  </si>
+  <si>
+    <t>Nien Nunb</t>
+  </si>
+  <si>
+    <t>Ekelarc Yong</t>
+  </si>
+  <si>
+    <t>Airen Cracken</t>
+  </si>
+  <si>
+    <t>Logray</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>Sila Kott</t>
+  </si>
+  <si>
+    <t>Hermi Odle</t>
+  </si>
+  <si>
+    <t>Gherant</t>
+  </si>
+  <si>
+    <t>Doda Bodonawieedo</t>
+  </si>
+  <si>
+    <t>Dengar</t>
+  </si>
+  <si>
+    <t>EV-9D9</t>
+  </si>
+  <si>
+    <t>Hewex</t>
+  </si>
+  <si>
+    <t>Pote Snitkin</t>
+  </si>
+  <si>
+    <t>Darth Sidious</t>
+  </si>
+  <si>
+    <t>Greeata Jendowanian</t>
+  </si>
+  <si>
+    <t>Amanaman</t>
+  </si>
+  <si>
+    <t>Boushh</t>
+  </si>
+  <si>
+    <t>Judder Page</t>
+  </si>
+  <si>
+    <t>Buboicullaar</t>
+  </si>
+  <si>
+    <t>Bossk</t>
+  </si>
+  <si>
+    <t>Tessek</t>
+  </si>
+  <si>
+    <t>Crix Madine</t>
+  </si>
+  <si>
+    <t>Vedain</t>
+  </si>
+  <si>
+    <t>Dorovio Bold</t>
+  </si>
+  <si>
+    <t>Ephant Mon</t>
+  </si>
+  <si>
+    <t>Shasa Tiel</t>
+  </si>
+  <si>
+    <t>Malakili</t>
+  </si>
+  <si>
+    <t>Ree-Yees</t>
+  </si>
+  <si>
+    <t>Pagetti Rook</t>
+  </si>
+  <si>
     <t>Saelt-Marae</t>
   </si>
   <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Orrimaarko</t>
-  </si>
-  <si>
-    <t>R2-D2</t>
-  </si>
-  <si>
-    <t>Jabba's bartender</t>
-  </si>
-  <si>
-    <t>Cane Adiss</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Igar</t>
-  </si>
-  <si>
-    <t>Harc Seff</t>
-  </si>
-  <si>
-    <t>Rystáll Sant</t>
-  </si>
-  <si>
-    <t>Teebo</t>
-  </si>
-  <si>
-    <t>Romba</t>
-  </si>
-  <si>
-    <t>Tiaan Jerjerrod</t>
-  </si>
-  <si>
-    <t>Max Rebo</t>
-  </si>
-  <si>
-    <t>Umpass-stay</t>
-  </si>
-  <si>
-    <t>Padmé Amidala</t>
-  </si>
-  <si>
-    <t>C-3PO</t>
-  </si>
-  <si>
-    <t>Jabba Desilijic Tiure</t>
-  </si>
-  <si>
-    <t>Gial Ackbar</t>
-  </si>
-  <si>
-    <t>Chewbacca</t>
-  </si>
-  <si>
-    <t>Kithaba</t>
-  </si>
-  <si>
-    <t>Joh Yowza</t>
-  </si>
-  <si>
-    <t>Bib Fortuna</t>
-  </si>
-  <si>
-    <t>Jubnuk</t>
-  </si>
-  <si>
-    <t>Velken Tezeri</t>
-  </si>
-  <si>
-    <t>Yoxgit</t>
-  </si>
-  <si>
-    <t>Leektar</t>
-  </si>
-  <si>
-    <t>Chirpa</t>
-  </si>
-  <si>
-    <t>Nik Sant</t>
-  </si>
-  <si>
-    <t>Geezum</t>
-  </si>
-  <si>
-    <t>Lyn Me</t>
-  </si>
-  <si>
-    <t>Keir Santage</t>
-  </si>
-  <si>
-    <t>Giran</t>
-  </si>
-  <si>
-    <t>Nien Nunb</t>
-  </si>
-  <si>
-    <t>Ekelarc Yong</t>
-  </si>
-  <si>
-    <t>Airen Cracken</t>
-  </si>
-  <si>
-    <t>Logray</t>
-  </si>
-  <si>
-    <t>Yoda</t>
-  </si>
-  <si>
-    <t>Sila Kott</t>
-  </si>
-  <si>
-    <t>Hermi Odle</t>
-  </si>
-  <si>
-    <t>Gherant</t>
-  </si>
-  <si>
-    <t>Doda Bodonawieedo</t>
-  </si>
-  <si>
-    <t>Dengar</t>
-  </si>
-  <si>
-    <t>EV-9D9</t>
-  </si>
-  <si>
-    <t>Hewex</t>
-  </si>
-  <si>
-    <t>Pote Snitkin</t>
-  </si>
-  <si>
-    <t>Darth Sidious</t>
-  </si>
-  <si>
-    <t>Greeata Jendowanian</t>
-  </si>
-  <si>
-    <t>Amanaman</t>
-  </si>
-  <si>
-    <t>Boushh</t>
-  </si>
-  <si>
-    <t>Judder Page</t>
-  </si>
-  <si>
-    <t>Buboicullaar</t>
-  </si>
-  <si>
-    <t>Bossk</t>
-  </si>
-  <si>
-    <t>Tessek</t>
-  </si>
-  <si>
-    <t>Crix Madine</t>
-  </si>
-  <si>
-    <t>Vedain</t>
-  </si>
-  <si>
-    <t>Dorovio Bold</t>
-  </si>
-  <si>
-    <t>Ephant Mon</t>
-  </si>
-  <si>
-    <t>Shasa Tiel</t>
-  </si>
-  <si>
-    <t>Malakili</t>
-  </si>
-  <si>
-    <t>Ree-Yees</t>
-  </si>
-  <si>
-    <t>Pagetti Rook</t>
-  </si>
-  <si>
     <t>Dyer</t>
   </si>
   <si>
@@ -308,9 +311,6 @@
   </si>
   <si>
     <t>Sy Snootles</t>
-  </si>
-  <si>
-    <t>Obi-Wan Kenobi</t>
   </si>
   <si>
     <t>Ak-rev</t>
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03720288780089533</v>
+        <v>0.03720288780089532</v>
       </c>
       <c r="C3">
         <v>72</v>
@@ -908,7 +908,7 @@
         <v>0.02459016393442623</v>
       </c>
       <c r="E6">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>0.02459016393442623</v>
       </c>
       <c r="E8">
-        <v>6.175774342280465e-10</v>
+        <v>6.175774342280467e-10</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1038,7 +1038,7 @@
         <v>0.06557377049180328</v>
       </c>
       <c r="E11">
-        <v>0.02008929497870731</v>
+        <v>0.02008929497870732</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,7 +1064,7 @@
         <v>0.02459016393442623</v>
       </c>
       <c r="E12">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E13">
-        <v>1.206205926226653e-11</v>
+        <v>1.206205926226654e-11</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1116,7 +1116,7 @@
         <v>0.1065573770491803</v>
       </c>
       <c r="E14">
-        <v>0.02022606581468835</v>
+        <v>0.02022606581468836</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -1142,7 +1142,7 @@
         <v>0.05737704918032787</v>
       </c>
       <c r="E15">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>0.139344262295082</v>
       </c>
       <c r="E16">
-        <v>6.175774342280465e-10</v>
+        <v>6.175774342280467e-10</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1220,7 +1220,7 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E18">
-        <v>1.206205926226653e-11</v>
+        <v>1.206205926226654e-11</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>0.03278688524590164</v>
       </c>
       <c r="E19">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0.05737704918032787</v>
       </c>
       <c r="E22">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E23">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1393,25 +1393,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0002709659937677822</v>
+        <v>0.01153604948681199</v>
       </c>
       <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>0.06557377049180328</v>
+      </c>
+      <c r="E25">
+        <v>0.03814313116423129</v>
+      </c>
+      <c r="F25">
         <v>6</v>
-      </c>
-      <c r="D25">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="E25">
-        <v>6.175774342280465e-10</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E29">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E30">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0.08196721311475411</v>
       </c>
       <c r="E33">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0.04918032786885246</v>
       </c>
       <c r="E34">
-        <v>6.634132594246595e-11</v>
+        <v>6.634132594246597e-11</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -1662,7 +1662,7 @@
         <v>0.04098360655737705</v>
       </c>
       <c r="E35">
-        <v>0.001466500208806213</v>
+        <v>0.001466500208806214</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -1688,7 +1688,7 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E36">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0.07377049180327869</v>
       </c>
       <c r="E37">
-        <v>0.0213646412449965</v>
+        <v>0.02136464124499651</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -1766,7 +1766,7 @@
         <v>0.05737704918032787</v>
       </c>
       <c r="E39">
-        <v>1.206205926226653e-11</v>
+        <v>1.206205926226654e-11</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1835,7 +1835,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.07780421277260133</v>
+        <v>0.0778042127726013</v>
       </c>
       <c r="C42">
         <v>89</v>
@@ -1870,7 +1870,7 @@
         <v>0.278688524590164</v>
       </c>
       <c r="E43">
-        <v>0.1617908974849822</v>
+        <v>0.1617908974849823</v>
       </c>
       <c r="F43">
         <v>16</v>
@@ -1922,7 +1922,7 @@
         <v>0.1065573770491803</v>
       </c>
       <c r="E45">
-        <v>6.175774342280465e-10</v>
+        <v>6.175774342280467e-10</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>0.01639344262295082</v>
       </c>
       <c r="E46">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0.180327868852459</v>
       </c>
       <c r="E47">
-        <v>0.06043058126268184</v>
+        <v>0.06043058126268186</v>
       </c>
       <c r="F47">
         <v>8</v>
@@ -2026,7 +2026,7 @@
         <v>0.04918032786885246</v>
       </c>
       <c r="E49">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0.09836065573770492</v>
       </c>
       <c r="E50">
-        <v>6.284332875640864e-10</v>
+        <v>6.284332875640865e-10</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2095,25 +2095,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.01153604948681199</v>
+        <v>0.00585826053312521</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D52">
-        <v>0.06557377049180328</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="E52">
-        <v>0.03814313116423129</v>
+        <v>0.216091319356182</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G52" t="s">
         <v>57</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2130,7 +2130,7 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E53">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0.07377049180327869</v>
       </c>
       <c r="E54">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0.05737704918032787</v>
       </c>
       <c r="E55">
-        <v>1.206205926226653e-11</v>
+        <v>1.206205926226654e-11</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>0.04098360655737705</v>
       </c>
       <c r="E57">
-        <v>0.0002717214288160276</v>
+        <v>0.0002717214288160277</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2286,7 +2286,7 @@
         <v>0.01639344262295082</v>
       </c>
       <c r="E59">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>0.08196721311475411</v>
       </c>
       <c r="E60">
-        <v>0.03577527258303807</v>
+        <v>0.03577527258303808</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -2390,7 +2390,7 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E63">
-        <v>0.009963159045530679</v>
+        <v>0.009963159045530677</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2416,7 +2416,7 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E64">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E65">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>0.04098360655737705</v>
       </c>
       <c r="E66">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0.1229508196721312</v>
       </c>
       <c r="E67">
-        <v>0.07463966854148396</v>
+        <v>0.07463966854148399</v>
       </c>
       <c r="F67">
         <v>6</v>
@@ -2546,7 +2546,7 @@
         <v>0.03278688524590164</v>
       </c>
       <c r="E69">
-        <v>6.175774342280465e-10</v>
+        <v>6.175774342280467e-10</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -2572,7 +2572,7 @@
         <v>0.05737704918032787</v>
       </c>
       <c r="E70">
-        <v>1.206205926226653e-11</v>
+        <v>1.206205926226654e-11</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0.2295081967213115</v>
       </c>
       <c r="E74">
-        <v>0.1375256150742365</v>
+        <v>0.1375256150742366</v>
       </c>
       <c r="F74">
         <v>24</v>
@@ -2702,7 +2702,7 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E75">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0.01639344262295082</v>
       </c>
       <c r="E76">
-        <v>6.175774342280465e-10</v>
+        <v>6.175774342280467e-10</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -2754,7 +2754,7 @@
         <v>0.1147540983606557</v>
       </c>
       <c r="E77">
-        <v>0.03774706578774092</v>
+        <v>0.03774706578774093</v>
       </c>
       <c r="F77">
         <v>5</v>
@@ -2780,7 +2780,7 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E78">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0.03278688524590164</v>
       </c>
       <c r="E82">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2910,7 +2910,7 @@
         <v>0.04098360655737705</v>
       </c>
       <c r="E83">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0.06557377049180328</v>
       </c>
       <c r="E85">
-        <v>6.175774342280465e-10</v>
+        <v>6.175774342280467e-10</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -2988,7 +2988,7 @@
         <v>0.1065573770491803</v>
       </c>
       <c r="E86">
-        <v>6.175774342280465e-10</v>
+        <v>6.175774342280467e-10</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3005,16 +3005,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.0002709659937677822</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D87">
-        <v>0.03278688524590164</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="E87">
-        <v>6.175774342280465e-10</v>
+        <v>6.175774342280467e-10</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -3023,7 +3023,7 @@
         <v>92</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="E88">
-        <v>1.206205926226653e-12</v>
+        <v>6.175774342280467e-10</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="s">
         <v>93</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -3083,25 +3083,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.04496858637538451</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>0.4344262295081968</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>0.2726291624064943</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F90">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G90" t="s">
         <v>95</v>
       </c>
       <c r="H90">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3109,25 +3109,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>0.04496858637538451</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D91">
-        <v>0.03278688524590164</v>
+        <v>0.4344262295081968</v>
       </c>
       <c r="E91">
-        <v>1.206205926226653e-12</v>
+        <v>0.2726291624064943</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>96</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3135,25 +3135,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.03246034209029102</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D92">
-        <v>0.180327868852459</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="E92">
-        <v>0.04530082036821833</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F92">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
         <v>97</v>
       </c>
       <c r="H92">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3161,25 +3161,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.005858260533125211</v>
+        <v>0.03246034209029102</v>
       </c>
       <c r="C93">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D93">
-        <v>0.2459016393442623</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="E93">
-        <v>0.216091319356182</v>
+        <v>0.04530082036821834</v>
       </c>
       <c r="F93">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
       </c>
       <c r="H93">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3196,7 +3196,7 @@
         <v>0.06557377049180328</v>
       </c>
       <c r="E94">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3222,7 +3222,7 @@
         <v>0.04918032786885246</v>
       </c>
       <c r="E95">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E96">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -3300,7 +3300,7 @@
         <v>0.01639344262295082</v>
       </c>
       <c r="E98">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E99">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0.1639344262295082</v>
       </c>
       <c r="E101">
-        <v>0.02268860610421475</v>
+        <v>0.02268860610421476</v>
       </c>
       <c r="F101">
         <v>15</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0.02459016393442623</v>
       </c>
       <c r="E106">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>0.6475409836065574</v>
       </c>
       <c r="E107">
-        <v>0.2761558682440861</v>
+        <v>0.2761558682440862</v>
       </c>
       <c r="F107">
         <v>58</v>
@@ -3586,7 +3586,7 @@
         <v>0.04098360655737705</v>
       </c>
       <c r="E109">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3612,7 +3612,7 @@
         <v>0.01639344262295082</v>
       </c>
       <c r="E110">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0.00819672131147541</v>
       </c>
       <c r="E111">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3716,7 +3716,7 @@
         <v>0.1065573770491803</v>
       </c>
       <c r="E114">
-        <v>0.05862960918501536</v>
+        <v>0.05862960918501538</v>
       </c>
       <c r="F114">
         <v>4</v>
@@ -3768,7 +3768,7 @@
         <v>0.07377049180327869</v>
       </c>
       <c r="E116">
-        <v>6.284332875640864e-10</v>
+        <v>6.284332875640865e-10</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -3794,7 +3794,7 @@
         <v>0.04098360655737705</v>
       </c>
       <c r="E117">
-        <v>0.01665834898284212</v>
+        <v>0.01665834898284213</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -3820,7 +3820,7 @@
         <v>0.01639344262295082</v>
       </c>
       <c r="E118">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3846,7 +3846,7 @@
         <v>0.09836065573770492</v>
       </c>
       <c r="E119">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0.1065573770491803</v>
       </c>
       <c r="E120">
-        <v>6.175774342280465e-10</v>
+        <v>6.175774342280467e-10</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -3898,7 +3898,7 @@
         <v>0.03278688524590164</v>
       </c>
       <c r="E121">
-        <v>1.206205926226653e-12</v>
+        <v>1.206205926226654e-12</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>0.04918032786885246</v>
       </c>
       <c r="E122">
-        <v>6.175774342280465e-10</v>
+        <v>6.175774342280467e-10</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -3950,7 +3950,7 @@
         <v>0.139344262295082</v>
       </c>
       <c r="E123">
-        <v>0.03717190405900286</v>
+        <v>0.03717190405900287</v>
       </c>
       <c r="F123">
         <v>5</v>
